--- a/test0-ps-save-for-web/filesize.xlsx
+++ b/test0-ps-save-for-web/filesize.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnewton/Sites/gh/image-resize-tests/test0-ps-save-for-web/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28820" windowHeight="22100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="filesize.tsv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="252">
   <si>
     <t>Filename</t>
   </si>
@@ -411,7 +416,370 @@
     <t>PS CS 5</t>
   </si>
   <si>
-    <t>PS CC 2014</t>
+    <t>PS CC 2014 Optimized</t>
+  </si>
+  <si>
+    <t>PS CC 2014 Unoptimized</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1A-1.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1A-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1A-3.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1B-1.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1B-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1B-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1C-1.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1C-2.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/1C-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2A-1.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2A-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2A-3.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2B-1.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2B-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2B-3.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2C-1.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2C-2.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/2C-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3A-1.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3A-2.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3A-3.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3B-1.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3B-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3B-3.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3C-1.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3C-2.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/3C-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4A-1.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4A-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4A-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4B-1.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4B-2.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4B-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4C-1.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4C-2.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/4C-3.png</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/6D.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/6F.jpg</t>
+  </si>
+  <si>
+    <t>1200-unoptimized/6G.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1A-1.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1A-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1A-3.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1B-1.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1B-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1B-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1C-1.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1C-2.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/1C-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2A-1.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2A-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2A-3.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2B-1.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2B-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2B-3.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2C-1.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2C-2.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/2C-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3A-1.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3A-2.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3A-3.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3B-1.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3B-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3B-3.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3C-1.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3C-2.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/3C-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4A-1.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4A-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4A-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4B-1.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4B-2.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4B-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4C-1.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4C-2.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/4C-3.png</t>
+  </si>
+  <si>
+    <t>300-unoptimized/6D.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/6F.jpg</t>
+  </si>
+  <si>
+    <t>300-unoptimized/6G.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1A-1.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1A-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1A-3.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1B-1.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1B-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1B-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1C-1.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1C-2.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/1C-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2A-1.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2A-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2A-3.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2B-1.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2B-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2B-3.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2C-1.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2C-2.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/2C-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3A-1.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3A-2.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3A-3.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3B-1.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3B-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3B-3.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3C-1.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3C-2.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/3C-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4A-1.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4A-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4A-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4B-1.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4B-2.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4B-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4C-1.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4C-2.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/4C-3.png</t>
+  </si>
+  <si>
+    <t>600-unoptimized/6D.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/6E.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/6F.jpg</t>
+  </si>
+  <si>
+    <t>600-unoptimized/6G.jpg</t>
   </si>
 </sst>
 </file>
@@ -517,8 +885,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -604,6 +980,10 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -627,10 +1007,19 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -956,14 +1345,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83:J122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -973,9 +1362,14 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1">
+    <row r="1" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>129</v>
       </c>
@@ -988,8 +1382,16 @@
         <v>122</v>
       </c>
       <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="2:8" s="1" customFormat="1">
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,8 +1413,23 @@
       <c r="H2" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1037,8 +1454,26 @@
         <f>IF(IFERROR(SEARCH(".png", B3), 0), E3-C3,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="I3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="10">
+        <v>183075</v>
+      </c>
+      <c r="K3">
+        <f>J3-C3</f>
+        <v>3679</v>
+      </c>
+      <c r="L3">
+        <f>IF(IFERROR(SEARCH(".jpg", B3), 0), J3-C3,"")</f>
+        <v>3679</v>
+      </c>
+      <c r="M3" s="10" t="str">
+        <f>IF(IFERROR(SEARCH(".png", B3), 0), J3-C3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1498,26 @@
         <f t="shared" ref="H4:H58" si="2">IF(IFERROR(SEARCH(".png", B4), 0), E4-C4,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="10">
+        <v>233823</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="3">J4-C4</f>
+        <v>6991</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="4">IF(IFERROR(SEARCH(".jpg", B4), 0), J4-C4,"")</f>
+        <v>6991</v>
+      </c>
+      <c r="M4" s="10" t="str">
+        <f t="shared" ref="M4:M67" si="5">IF(IFERROR(SEARCH(".png", B4), 0), J4-C4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1089,8 +1542,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="10">
+        <v>285742</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>10164</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>10164</v>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1115,8 +1586,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="10">
+        <v>425092</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>21293</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>21293</v>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1141,8 +1630,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="10">
+        <v>200743</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>13878</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>13878</v>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1167,8 +1674,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="10">
+        <v>976146</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>278417</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="5"/>
+        <v>278417</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1718,26 @@
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3774662</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>346940</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="5"/>
+        <v>346940</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1219,8 +1762,26 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="10">
+        <v>979771</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>101129</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="5"/>
+        <v>101129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1245,8 +1806,26 @@
         <f t="shared" si="2"/>
         <v>-55</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="10">
+        <v>549043</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>33071</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="5"/>
+        <v>33071</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1271,8 +1850,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="10">
+        <v>260249</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>9732</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>9732</v>
+      </c>
+      <c r="M12" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1297,8 +1894,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="10">
+        <v>396691</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>11395</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>11395</v>
+      </c>
+      <c r="M13" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1323,8 +1938,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="10">
+        <v>141068</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>6188</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>6188</v>
+      </c>
+      <c r="M14" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1349,8 +1982,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="10">
+        <v>228229</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>14068</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>14068</v>
+      </c>
+      <c r="M15" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1375,8 +2026,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="10">
+        <v>216526</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>13984</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>13984</v>
+      </c>
+      <c r="M16" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1401,8 +2070,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="10">
+        <v>201320</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>14067</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>14067</v>
+      </c>
+      <c r="M17" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1427,8 +2114,26 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="10">
+        <v>4071486</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>193060</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="5"/>
+        <v>193060</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1453,8 +2158,26 @@
         <f t="shared" si="2"/>
         <v>-484</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="10">
+        <v>526071</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>59913</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="5"/>
+        <v>59913</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1479,8 +2202,26 @@
         <f t="shared" si="2"/>
         <v>-483</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1082007</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>78600</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="5"/>
+        <v>78600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1505,8 +2246,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="10">
+        <v>117800</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>15207</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>15207</v>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1531,8 +2290,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2915517</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>187979</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="5"/>
+        <v>187979</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1557,8 +2334,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="10">
+        <v>269843</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>22607</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>22607</v>
+      </c>
+      <c r="M23" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1583,8 +2378,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="10">
+        <v>49896</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>9956</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>9956</v>
+      </c>
+      <c r="M24" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +2422,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="10">
+        <v>181641</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>42021</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>42021</v>
+      </c>
+      <c r="M25" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1635,8 +2466,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="10">
+        <v>252600</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>25388</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>25388</v>
+      </c>
+      <c r="M26" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1661,8 +2510,26 @@
         <f t="shared" si="2"/>
         <v>-57</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="I27" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="10">
+        <v>197530</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>47245</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="5"/>
+        <v>47245</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1687,8 +2554,26 @@
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="I28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="10">
+        <v>120585</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>10163</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="5"/>
+        <v>10163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1713,8 +2598,26 @@
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="10">
+        <v>337030</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>98686</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="5"/>
+        <v>98686</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1739,8 +2642,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="I30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="10">
+        <v>632283</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>394261</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="5"/>
+        <v>394261</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1765,8 +2686,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="I31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="10">
+        <v>259533</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>12921</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>12921</v>
+      </c>
+      <c r="M31" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1791,8 +2730,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="I32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1873920</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>81465</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="5"/>
+        <v>81465</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1817,8 +2774,26 @@
         <f t="shared" si="2"/>
         <v>40512</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="I33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="10">
+        <v>380204</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>149549</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="5"/>
+        <v>149549</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1843,8 +2818,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="10">
+        <v>398534</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>33104</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>33104</v>
+      </c>
+      <c r="M34" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1869,8 +2862,26 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="I35" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="10">
+        <v>903859</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>445744</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="5"/>
+        <v>445744</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1895,8 +2906,26 @@
         <f t="shared" si="2"/>
         <v>-102</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="I36" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="10">
+        <v>236080</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>48899</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="5"/>
+        <v>48899</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1921,8 +2950,26 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="I37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="10">
+        <v>450146</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>218181</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="5"/>
+        <v>218181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +2994,26 @@
         <f t="shared" si="2"/>
         <v>-91</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="I38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="10">
+        <v>506751</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>90696</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="5"/>
+        <v>90696</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1973,8 +3038,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="I39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="10">
+        <v>317359</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>18558</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>18558</v>
+      </c>
+      <c r="M39" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1999,8 +3082,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="I40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="10">
+        <v>313813</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>34595</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>34595</v>
+      </c>
+      <c r="M40" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2025,8 +3126,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="I41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="10">
+        <v>229541</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>5350</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>5350</v>
+      </c>
+      <c r="M41" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2051,8 +3170,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="I42" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="10">
+        <v>31614</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>5379</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>5379</v>
+      </c>
+      <c r="M42" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2077,8 +3214,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="I43" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" s="10">
+        <v>21533</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>429</v>
+      </c>
+      <c r="M43" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2103,8 +3258,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="I44" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="10">
+        <v>26309</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>624</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>624</v>
+      </c>
+      <c r="M44" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2129,8 +3302,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="I45" t="s">
+        <v>174</v>
+      </c>
+      <c r="J45" s="10">
+        <v>24300</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>645</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>645</v>
+      </c>
+      <c r="M45" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2155,8 +3346,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="I46" t="s">
+        <v>175</v>
+      </c>
+      <c r="J46" s="10">
+        <v>31511</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1470</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>1470</v>
+      </c>
+      <c r="M46" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2181,8 +3390,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="I47" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="10">
+        <v>17301</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>981</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>981</v>
+      </c>
+      <c r="M47" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2207,8 +3434,26 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="I48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="10">
+        <v>83911</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>26214</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="5"/>
+        <v>26214</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2233,8 +3478,26 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="I49" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" s="10">
+        <v>223703</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>18242</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="5"/>
+        <v>18242</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2259,8 +3522,26 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="I50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="10">
+        <v>77906</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>8149</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="5"/>
+        <v>8149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2285,8 +3566,26 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="I51" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="10">
+        <v>59810</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>9124</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="5"/>
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2311,8 +3610,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I52" t="s">
+        <v>181</v>
+      </c>
+      <c r="J52" s="10">
+        <v>28269</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>659</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>659</v>
+      </c>
+      <c r="M52" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2337,8 +3654,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="I53" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" s="10">
+        <v>40031</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1534</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>1534</v>
+      </c>
+      <c r="M53" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2363,8 +3698,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="I54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="10">
+        <v>14295</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="M54" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2389,8 +3742,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="I55" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" s="10">
+        <v>16145</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>730</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>730</v>
+      </c>
+      <c r="M55" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2415,8 +3786,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="I56" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="10">
+        <v>20740</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>965</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>965</v>
+      </c>
+      <c r="M56" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2441,8 +3830,26 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="I57" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57" s="10">
+        <v>19717</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>927</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>927</v>
+      </c>
+      <c r="M57" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2467,8 +3874,26 @@
         <f t="shared" si="2"/>
         <v>-63</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="10">
+        <v>257467</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>9566</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" si="5"/>
+        <v>9566</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2482,19 +3907,37 @@
         <v>38896</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F113" si="3">E59-C59</f>
+        <f t="shared" ref="F59:F113" si="6">E59-C59</f>
         <v>-56</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" ref="G59:G113" si="4">IF(IFERROR(SEARCH(".jpg", B59), 0), E59-C59,"")</f>
+        <f t="shared" ref="G59:G113" si="7">IF(IFERROR(SEARCH(".jpg", B59), 0), E59-C59,"")</f>
         <v/>
       </c>
       <c r="H59" s="10">
-        <f t="shared" ref="H59:H113" si="5">IF(IFERROR(SEARCH(".png", B59), 0), E59-C59,"")</f>
+        <f t="shared" ref="H59:H113" si="8">IF(IFERROR(SEARCH(".png", B59), 0), E59-C59,"")</f>
         <v>-56</v>
       </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="I59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" s="10">
+        <v>44155</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>5203</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="5"/>
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2508,19 +3951,37 @@
         <v>89864</v>
       </c>
       <c r="F60">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>189</v>
+      </c>
+      <c r="J60" s="10">
+        <v>95701</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="G60" t="str">
+        <v>5859</v>
+      </c>
+      <c r="L60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H60" s="10">
+      <c r="M60" s="10">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
@@ -2534,19 +3995,37 @@
         <v>10241</v>
       </c>
       <c r="F61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I61" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61" s="10">
+        <v>11098</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G61">
+        <v>857</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="10" t="str">
+        <v>857</v>
+      </c>
+      <c r="M61" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2560,19 +4039,37 @@
         <v>193900</v>
       </c>
       <c r="F62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="10">
+        <v>199480</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G62" t="str">
+        <v>5580</v>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H62" s="10">
+      <c r="M62" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2586,19 +4083,37 @@
         <v>19064</v>
       </c>
       <c r="F63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I63" t="s">
+        <v>192</v>
+      </c>
+      <c r="J63" s="10">
+        <v>20063</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G63">
+        <v>999</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="10" t="str">
+        <v>999</v>
+      </c>
+      <c r="M63" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2612,19 +4127,37 @@
         <v>6285</v>
       </c>
       <c r="F64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I64" t="s">
+        <v>193</v>
+      </c>
+      <c r="J64" s="10">
+        <v>6882</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G64">
+        <v>597</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="10" t="str">
+        <v>597</v>
+      </c>
+      <c r="M64" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2638,19 +4171,37 @@
         <v>27553</v>
       </c>
       <c r="F65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I65" t="s">
+        <v>194</v>
+      </c>
+      <c r="J65" s="10">
+        <v>31156</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G65">
+        <v>3603</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="10" t="str">
+        <v>3603</v>
+      </c>
+      <c r="M65" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2664,19 +4215,37 @@
         <v>19854</v>
       </c>
       <c r="F66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I66" t="s">
+        <v>195</v>
+      </c>
+      <c r="J66" s="10">
+        <v>21147</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G66">
+        <v>1293</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="10" t="str">
+        <v>1293</v>
+      </c>
+      <c r="M66" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2690,19 +4259,37 @@
         <v>23718</v>
       </c>
       <c r="F67">
+        <f t="shared" si="6"/>
+        <v>-28</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="8"/>
+        <v>-28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="10">
+        <v>30644</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="3"/>
-        <v>-28</v>
-      </c>
-      <c r="G67" t="str">
+        <v>6898</v>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H67" s="10">
+      <c r="M67" s="10">
         <f t="shared" si="5"/>
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2716,19 +4303,37 @@
         <v>19112</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>197</v>
+      </c>
+      <c r="J68" s="10">
+        <v>23137</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K122" si="9">J68-C68</f>
+        <v>4025</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L122" si="10">IF(IFERROR(SEARCH(".jpg", B68), 0), J68-C68,"")</f>
+        <v/>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" ref="M68:M122" si="11">IF(IFERROR(SEARCH(".png", B68), 0), J68-C68,"")</f>
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2742,19 +4347,37 @@
         <v>36112</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="I69" t="s">
+        <v>198</v>
+      </c>
+      <c r="J69" s="10">
+        <v>49529</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>13455</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="11"/>
+        <v>13455</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2768,19 +4391,37 @@
         <v>104325</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-419</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-419</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70" t="s">
+        <v>199</v>
+      </c>
+      <c r="J70" s="10">
+        <v>205675</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>100931</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="11"/>
+        <v>100931</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2794,19 +4435,37 @@
         <v>30626</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H71" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I71" t="s">
+        <v>200</v>
+      </c>
+      <c r="J71" s="10">
+        <v>31824</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>1198</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>1198</v>
+      </c>
+      <c r="M71" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2820,19 +4479,37 @@
         <v>160280</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>201</v>
+      </c>
+      <c r="J72" s="10">
+        <v>191891</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="9"/>
+        <v>31611</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="11"/>
+        <v>31611</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2846,19 +4523,37 @@
         <v>45820</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6216</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6216</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="I73" t="s">
+        <v>202</v>
+      </c>
+      <c r="J73" s="10">
+        <v>61849</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="9"/>
+        <v>22245</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="11"/>
+        <v>22245</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>73</v>
       </c>
@@ -2872,19 +4567,37 @@
         <v>33919</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H74" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I74" t="s">
+        <v>203</v>
+      </c>
+      <c r="J74" s="10">
+        <v>36230</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="9"/>
+        <v>2311</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="10"/>
+        <v>2311</v>
+      </c>
+      <c r="M74" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2898,19 +4611,37 @@
         <v>46317</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" s="10">
+        <v>85886</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="9"/>
+        <v>39569</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="11"/>
+        <v>39569</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
@@ -2924,19 +4655,37 @@
         <v>26551</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-193</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-193</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" s="10">
+        <v>34481</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="9"/>
+        <v>7737</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="11"/>
+        <v>7737</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>76</v>
       </c>
@@ -2950,19 +4699,37 @@
         <v>42172</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J77" s="10">
+        <v>70709</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="9"/>
+        <v>28581</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="11"/>
+        <v>28581</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
@@ -2976,19 +4743,37 @@
         <v>45476</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>797</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H78" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>797</v>
       </c>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="I78" t="s">
+        <v>207</v>
+      </c>
+      <c r="J78" s="10">
+        <v>51998</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="9"/>
+        <v>7319</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="11"/>
+        <v>7319</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>78</v>
       </c>
@@ -3002,19 +4787,37 @@
         <v>22610</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="H79" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I79" t="s">
+        <v>208</v>
+      </c>
+      <c r="J79" s="10">
+        <v>23363</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="9"/>
+        <v>858</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="10"/>
+        <v>858</v>
+      </c>
+      <c r="M79" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
@@ -3028,19 +4831,37 @@
         <v>24244</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7</v>
       </c>
       <c r="H80" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I80" t="s">
+        <v>209</v>
+      </c>
+      <c r="J80" s="10">
+        <v>26391</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>2140</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="10"/>
+        <v>2140</v>
+      </c>
+      <c r="M80" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
@@ -3054,19 +4875,37 @@
         <v>28595</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H81" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I81" t="s">
+        <v>210</v>
+      </c>
+      <c r="J81" s="10">
+        <v>29392</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="9"/>
+        <v>797</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="10"/>
+        <v>797</v>
+      </c>
+      <c r="M81" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
@@ -3080,19 +4919,37 @@
         <v>4531</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I82" t="s">
+        <v>211</v>
+      </c>
+      <c r="J82" s="10">
+        <v>4684</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="9"/>
+        <v>153</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="10"/>
+        <v>153</v>
+      </c>
+      <c r="M82" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
@@ -3106,19 +4963,37 @@
         <v>59007</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I83" t="s">
+        <v>212</v>
+      </c>
+      <c r="J83" s="10">
+        <v>60324</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="9"/>
+        <v>1317</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="10"/>
+        <v>1317</v>
+      </c>
+      <c r="M83" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
@@ -3132,19 +5007,37 @@
         <v>71543</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I84" t="s">
+        <v>213</v>
+      </c>
+      <c r="J84" s="10">
+        <v>73320</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="9"/>
+        <v>1777</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="10"/>
+        <v>1777</v>
+      </c>
+      <c r="M84" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
@@ -3158,19 +5051,37 @@
         <v>75935</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H85" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I85" t="s">
+        <v>214</v>
+      </c>
+      <c r="J85" s="10">
+        <v>78259</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="9"/>
+        <v>2324</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="10"/>
+        <v>2324</v>
+      </c>
+      <c r="M85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
@@ -3184,19 +5095,37 @@
         <v>109867</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H86" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I86" t="s">
+        <v>215</v>
+      </c>
+      <c r="J86" s="10">
+        <v>116081</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="9"/>
+        <v>6214</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="10"/>
+        <v>6214</v>
+      </c>
+      <c r="M86" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
@@ -3210,19 +5139,37 @@
         <v>53776</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I87" t="s">
+        <v>216</v>
+      </c>
+      <c r="J87" s="10">
+        <v>57341</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="9"/>
+        <v>3565</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="10"/>
+        <v>3565</v>
+      </c>
+      <c r="M87" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
@@ -3236,19 +5183,37 @@
         <v>211327</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>217</v>
+      </c>
+      <c r="J88" s="10">
+        <v>298333</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="9"/>
+        <v>87006</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="11"/>
+        <v>87006</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
@@ -3262,19 +5227,37 @@
         <v>872485</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H89" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>374</v>
       </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="I89" t="s">
+        <v>218</v>
+      </c>
+      <c r="J89" s="10">
+        <v>954242</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="9"/>
+        <v>82131</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="11"/>
+        <v>82131</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
@@ -3288,19 +5271,37 @@
         <v>244099</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H90" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="I90" t="s">
+        <v>219</v>
+      </c>
+      <c r="J90" s="10">
+        <v>270067</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="9"/>
+        <v>25970</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="11"/>
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
@@ -3314,19 +5315,37 @@
         <v>163980</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H91" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="I91" t="s">
+        <v>220</v>
+      </c>
+      <c r="J91" s="10">
+        <v>179854</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="9"/>
+        <v>15876</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" si="11"/>
+        <v>15876</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>91</v>
       </c>
@@ -3340,19 +5359,37 @@
         <v>84311</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H92" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I92" t="s">
+        <v>221</v>
+      </c>
+      <c r="J92" s="10">
+        <v>86788</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="9"/>
+        <v>2477</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="10"/>
+        <v>2477</v>
+      </c>
+      <c r="M92" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>92</v>
       </c>
@@ -3366,19 +5403,37 @@
         <v>122299</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H93" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I93" t="s">
+        <v>222</v>
+      </c>
+      <c r="J93" s="10">
+        <v>126470</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="9"/>
+        <v>4171</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="10"/>
+        <v>4171</v>
+      </c>
+      <c r="M93" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>93</v>
       </c>
@@ -3392,19 +5447,37 @@
         <v>42631</v>
       </c>
       <c r="F94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H94" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I94" t="s">
+        <v>223</v>
+      </c>
+      <c r="J94" s="10">
+        <v>44082</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="9"/>
+        <v>1451</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="10"/>
+        <v>1451</v>
+      </c>
+      <c r="M94" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
@@ -3418,19 +5491,37 @@
         <v>56583</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H95" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I95" t="s">
+        <v>224</v>
+      </c>
+      <c r="J95" s="10">
+        <v>59707</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="9"/>
+        <v>3124</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="10"/>
+        <v>3124</v>
+      </c>
+      <c r="M95" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>95</v>
       </c>
@@ -3444,19 +5535,37 @@
         <v>62620</v>
       </c>
       <c r="F96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H96" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I96" t="s">
+        <v>225</v>
+      </c>
+      <c r="J96" s="10">
+        <v>66219</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="9"/>
+        <v>3599</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="10"/>
+        <v>3599</v>
+      </c>
+      <c r="M96" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
@@ -3470,19 +5579,37 @@
         <v>60866</v>
       </c>
       <c r="F97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H97" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I97" t="s">
+        <v>226</v>
+      </c>
+      <c r="J97" s="10">
+        <v>64503</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="9"/>
+        <v>3637</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="10"/>
+        <v>3637</v>
+      </c>
+      <c r="M97" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
@@ -3496,19 +5623,37 @@
         <v>1025930</v>
       </c>
       <c r="F98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="99" spans="2:8">
+      <c r="I98" t="s">
+        <v>227</v>
+      </c>
+      <c r="J98" s="10">
+        <v>1072654</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="9"/>
+        <v>46840</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M98" s="10">
+        <f t="shared" si="11"/>
+        <v>46840</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>98</v>
       </c>
@@ -3522,19 +5667,37 @@
         <v>123791</v>
       </c>
       <c r="F99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-31</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-31</v>
       </c>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="I99" t="s">
+        <v>228</v>
+      </c>
+      <c r="J99" s="10">
+        <v>141286</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="9"/>
+        <v>17464</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M99" s="10">
+        <f t="shared" si="11"/>
+        <v>17464</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>99</v>
       </c>
@@ -3548,19 +5711,37 @@
         <v>295956</v>
       </c>
       <c r="F100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-197</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H100" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-197</v>
       </c>
-    </row>
-    <row r="101" spans="2:8">
+      <c r="I100" t="s">
+        <v>229</v>
+      </c>
+      <c r="J100" s="10">
+        <v>316783</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="9"/>
+        <v>20630</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M100" s="10">
+        <f t="shared" si="11"/>
+        <v>20630</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
@@ -3574,19 +5755,37 @@
         <v>31156</v>
       </c>
       <c r="F101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H101" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I101" t="s">
+        <v>230</v>
+      </c>
+      <c r="J101" s="10">
+        <v>35073</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="9"/>
+        <v>3917</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="10"/>
+        <v>3917</v>
+      </c>
+      <c r="M101" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>101</v>
       </c>
@@ -3600,19 +5799,37 @@
         <v>730384</v>
       </c>
       <c r="F102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H102" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>231</v>
+      </c>
+      <c r="J102" s="10">
+        <v>759147</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="9"/>
+        <v>28763</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M102" s="10">
+        <f t="shared" si="11"/>
+        <v>28763</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>102</v>
       </c>
@@ -3626,19 +5843,37 @@
         <v>66578</v>
       </c>
       <c r="F103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H103" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I103" t="s">
+        <v>232</v>
+      </c>
+      <c r="J103" s="10">
+        <v>71702</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="9"/>
+        <v>5124</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="10"/>
+        <v>5124</v>
+      </c>
+      <c r="M103" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>103</v>
       </c>
@@ -3652,19 +5887,37 @@
         <v>14898</v>
       </c>
       <c r="F104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H104" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I104" t="s">
+        <v>233</v>
+      </c>
+      <c r="J104" s="10">
+        <v>17190</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="9"/>
+        <v>2292</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="10"/>
+        <v>2292</v>
+      </c>
+      <c r="M104" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
@@ -3678,19 +5931,37 @@
         <v>59172</v>
       </c>
       <c r="F105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H105" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I105" t="s">
+        <v>234</v>
+      </c>
+      <c r="J105" s="10">
+        <v>71278</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="9"/>
+        <v>12106</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="10"/>
+        <v>12106</v>
+      </c>
+      <c r="M105" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>105</v>
       </c>
@@ -3704,19 +5975,37 @@
         <v>62810</v>
       </c>
       <c r="F106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H106" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I106" t="s">
+        <v>235</v>
+      </c>
+      <c r="J106" s="10">
+        <v>68297</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="9"/>
+        <v>5487</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="10"/>
+        <v>5487</v>
+      </c>
+      <c r="M106" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>106</v>
       </c>
@@ -3730,19 +6019,37 @@
         <v>59529</v>
       </c>
       <c r="F107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-22</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H107" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-22</v>
       </c>
-    </row>
-    <row r="108" spans="2:8">
+      <c r="I107" t="s">
+        <v>236</v>
+      </c>
+      <c r="J107" s="10">
+        <v>77242</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="9"/>
+        <v>17691</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="11"/>
+        <v>17691</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>107</v>
       </c>
@@ -3756,19 +6063,37 @@
         <v>47762</v>
       </c>
       <c r="F108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>237</v>
+      </c>
+      <c r="J108" s="10">
+        <v>54044</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="9"/>
+        <v>6282</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="11"/>
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
@@ -3782,19 +6107,37 @@
         <v>93051</v>
       </c>
       <c r="F109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H109" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="2:8">
+      <c r="I109" t="s">
+        <v>238</v>
+      </c>
+      <c r="J109" s="10">
+        <v>131254</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="9"/>
+        <v>38220</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M109" s="10">
+        <f t="shared" si="11"/>
+        <v>38220</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>109</v>
       </c>
@@ -3808,19 +6151,37 @@
         <v>257265</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-484</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H110" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-484</v>
       </c>
-    </row>
-    <row r="111" spans="2:8">
+      <c r="I110" t="s">
+        <v>239</v>
+      </c>
+      <c r="J110" s="10">
+        <v>570834</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="9"/>
+        <v>313085</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M110" s="10">
+        <f t="shared" si="11"/>
+        <v>313085</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
@@ -3834,19 +6195,37 @@
         <v>91024</v>
       </c>
       <c r="F111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H111" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I111" t="s">
+        <v>240</v>
+      </c>
+      <c r="J111" s="10">
+        <v>94889</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="9"/>
+        <v>3865</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="10"/>
+        <v>3865</v>
+      </c>
+      <c r="M111" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>111</v>
       </c>
@@ -3860,19 +6239,37 @@
         <v>523687</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>241</v>
+      </c>
+      <c r="J112" s="10">
+        <v>612014</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="9"/>
+        <v>88327</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M112" s="10">
+        <f t="shared" si="11"/>
+        <v>88327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>112</v>
       </c>
@@ -3886,19 +6283,37 @@
         <v>119365</v>
       </c>
       <c r="F113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17926</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17926</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>242</v>
+      </c>
+      <c r="J113" s="10">
+        <v>161578</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="9"/>
+        <v>60139</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M113" s="10">
+        <f t="shared" si="11"/>
+        <v>60139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>113</v>
       </c>
@@ -3912,19 +6327,37 @@
         <v>119128</v>
       </c>
       <c r="F114">
-        <f t="shared" ref="F114:F122" si="6">E114-C114</f>
+        <f t="shared" ref="F114:F122" si="12">E114-C114</f>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" ref="G114:G122" si="7">IF(IFERROR(SEARCH(".jpg", B114), 0), E114-C114,"")</f>
+        <f t="shared" ref="G114:G122" si="13">IF(IFERROR(SEARCH(".jpg", B114), 0), E114-C114,"")</f>
         <v>0</v>
       </c>
       <c r="H114" s="10" t="str">
-        <f t="shared" ref="H114:H122" si="8">IF(IFERROR(SEARCH(".png", B114), 0), E114-C114,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <f t="shared" ref="H114:H122" si="14">IF(IFERROR(SEARCH(".png", B114), 0), E114-C114,"")</f>
+        <v/>
+      </c>
+      <c r="I114" t="s">
+        <v>243</v>
+      </c>
+      <c r="J114" s="10">
+        <v>127635</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="9"/>
+        <v>8507</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="10"/>
+        <v>8507</v>
+      </c>
+      <c r="M114" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>114</v>
       </c>
@@ -3938,19 +6371,37 @@
         <v>146920</v>
       </c>
       <c r="F115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>244</v>
+      </c>
+      <c r="J115" s="10">
+        <v>286102</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="9"/>
+        <v>139179</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M115" s="10">
+        <f t="shared" si="11"/>
+        <v>139179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>115</v>
       </c>
@@ -3964,19 +6415,37 @@
         <v>68148</v>
       </c>
       <c r="F116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-78</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H116" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-78</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>245</v>
+      </c>
+      <c r="J116" s="10">
+        <v>89140</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="9"/>
+        <v>20914</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M116" s="10">
+        <f t="shared" si="11"/>
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3990,19 +6459,37 @@
         <v>96323</v>
       </c>
       <c r="F117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>246</v>
+      </c>
+      <c r="J117" s="10">
+        <v>170485</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="9"/>
+        <v>74162</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M117" s="10">
+        <f t="shared" si="11"/>
+        <v>74162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>117</v>
       </c>
@@ -4016,19 +6503,37 @@
         <v>139306</v>
       </c>
       <c r="F118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-315</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-315</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>247</v>
+      </c>
+      <c r="J118" s="10">
+        <v>169203</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="9"/>
+        <v>29582</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M118" s="10">
+        <f t="shared" si="11"/>
+        <v>29582</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>118</v>
       </c>
@@ -4042,19 +6547,37 @@
         <v>82729</v>
       </c>
       <c r="F119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H119" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I119" t="s">
+        <v>248</v>
+      </c>
+      <c r="J119" s="10">
+        <v>87086</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="9"/>
+        <v>4357</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="10"/>
+        <v>4357</v>
+      </c>
+      <c r="M119" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>119</v>
       </c>
@@ -4068,19 +6591,37 @@
         <v>81575</v>
       </c>
       <c r="F120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H120" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I120" t="s">
+        <v>249</v>
+      </c>
+      <c r="J120" s="10">
+        <v>89883</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="9"/>
+        <v>8308</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="10"/>
+        <v>8308</v>
+      </c>
+      <c r="M120" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>120</v>
       </c>
@@ -4094,19 +6635,37 @@
         <v>82547</v>
       </c>
       <c r="F121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H121" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="7" customFormat="1">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I121" t="s">
+        <v>250</v>
+      </c>
+      <c r="J121" s="10">
+        <v>85078</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="9"/>
+        <v>2531</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="10"/>
+        <v>2531</v>
+      </c>
+      <c r="M121" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
         <v>121</v>
       </c>
@@ -4120,19 +6679,37 @@
         <v>10517</v>
       </c>
       <c r="F122" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H122" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="1" customFormat="1">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J122" s="11">
+        <v>11561</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="9"/>
+        <v>1044</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="10"/>
+        <v>1044</v>
+      </c>
+      <c r="M122" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -4157,8 +6734,24 @@
         <f>AVERAGE(H3:H122)</f>
         <v>1178.851851851852</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" s="1" customFormat="1">
+      <c r="J123" s="8">
+        <f>AVERAGE(J3:J122)</f>
+        <v>299709.7</v>
+      </c>
+      <c r="K123" s="1">
+        <f>AVERAGE(K3:K122)</f>
+        <v>39936.300000000003</v>
+      </c>
+      <c r="L123" s="1">
+        <f>AVERAGE(L3:L122)</f>
+        <v>7057.409090909091</v>
+      </c>
+      <c r="M123" s="8">
+        <f>AVERAGE(M3:M122)</f>
+        <v>80121.611111111109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -4183,8 +6776,24 @@
         <f>MEDIAN(H3:H122)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" s="4" customFormat="1">
+      <c r="J124" s="8">
+        <f>MEDIAN(J3:J122)</f>
+        <v>116940.5</v>
+      </c>
+      <c r="K124" s="1">
+        <f>MEDIAN(K3:K122)</f>
+        <v>9844</v>
+      </c>
+      <c r="L124" s="1">
+        <f>MEDIAN(L3:L122)</f>
+        <v>3620</v>
+      </c>
+      <c r="M124" s="8">
+        <f>MEDIAN(M3:M122)</f>
+        <v>35645.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>128</v>
       </c>
@@ -4209,14 +6818,25 @@
         <f>SUM(H3:H122)</f>
         <v>63658</v>
       </c>
+      <c r="J125" s="9">
+        <f>SUM(J3:J122)</f>
+        <v>35965164</v>
+      </c>
+      <c r="K125" s="4">
+        <f>SUM(K3:K122)</f>
+        <v>4792356</v>
+      </c>
+      <c r="L125" s="4">
+        <f>SUM(L3:L122)</f>
+        <v>465789</v>
+      </c>
+      <c r="M125" s="9">
+        <f>SUM(M3:M122)</f>
+        <v>4326567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>